--- a/Results/Num_Evaluation.xlsx
+++ b/Results/Num_Evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster\TFM\Methodology\Num\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513FA714-3570-4B4A-915E-0DCEAE9C02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B8575-F59E-4ADD-80A4-248BCF213C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -271,18 +271,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -418,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -449,22 +443,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2971,9 +2962,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3011,9 +3002,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3046,26 +3037,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3098,26 +3072,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3293,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D64" sqref="B35:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3307,56 +3264,56 @@
       <c r="B1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18">
         <v>2</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18">
         <v>3</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18">
         <v>4</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18">
         <v>5</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18">
         <v>6</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18">
         <v>7</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20">
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18">
         <v>8</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20">
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18">
         <v>9</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20">
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18">
         <v>10</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -5415,10 +5372,10 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="4">
         <f t="shared" ref="C23:AF23" si="0">AVERAGE(C3:C22)</f>
         <v>0.20269037871621548</v>
@@ -5541,393 +5498,393 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="4">
-        <f>RANK(C23,$C$23:$AF$23,1)</f>
-        <v>4</v>
+        <f>RANK(C23,$C$23:$AF$23,0)</f>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:AF24" si="1">RANK(D23,$C$23:$AF$23,1)</f>
-        <v>14</v>
+        <f t="shared" ref="D24:AF24" si="1">RANK(D23,$C$23:$AF$23,0)</f>
+        <v>17</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AB24" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC24" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AD24" s="4">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE24" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF24" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18">
         <f>SUM(C24:E24)</f>
+        <v>54</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18">
+        <f t="shared" ref="F25" si="2">SUM(F24:H24)</f>
+        <v>47</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <f t="shared" ref="I25" si="3">SUM(I24:K24)</f>
+        <v>54</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18">
+        <f t="shared" ref="L25" si="4">SUM(L24:N24)</f>
         <v>39</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20">
-        <f t="shared" ref="F25" si="2">SUM(F24:H24)</f>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18">
+        <f t="shared" ref="O25" si="5">SUM(O24:Q24)</f>
+        <v>54</v>
+      </c>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18">
+        <f t="shared" ref="R25" si="6">SUM(R24:T24)</f>
+        <v>51</v>
+      </c>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18">
+        <f t="shared" ref="U25" si="7">SUM(U24:W24)</f>
+        <v>45</v>
+      </c>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18">
+        <f t="shared" ref="X25" si="8">SUM(X24:Z24)</f>
         <v>46</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20">
-        <f t="shared" ref="I25" si="3">SUM(I24:K24)</f>
-        <v>39</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20">
-        <f t="shared" ref="L25" si="4">SUM(L24:N24)</f>
-        <v>54</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20">
-        <f t="shared" ref="O25" si="5">SUM(O24:Q24)</f>
-        <v>39</v>
-      </c>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20">
-        <f t="shared" ref="R25" si="6">SUM(R24:T24)</f>
-        <v>42</v>
-      </c>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20">
-        <f t="shared" ref="U25" si="7">SUM(U24:W24)</f>
-        <v>48</v>
-      </c>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20">
-        <f t="shared" ref="X25" si="8">SUM(X24:Z24)</f>
-        <v>47</v>
-      </c>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20">
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18">
         <f t="shared" ref="AA25" si="9">SUM(AA24:AC24)</f>
-        <v>49</v>
-      </c>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20">
+        <v>44</v>
+      </c>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18">
         <f t="shared" ref="AD25" si="10">SUM(AD24:AF24)</f>
-        <v>62</v>
-      </c>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
     </row>
     <row r="26" spans="1:32" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="20">
-        <f>RANK(C25,$C$25:$AF$25,0)</f>
+      <c r="B26" s="20"/>
+      <c r="C26" s="18">
+        <f>RANK(C25,$C$25:$AF$25,1)</f>
         <v>8</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
-        <f t="shared" ref="F26" si="11">RANK(F25,$C$25:$AF$25,0)</f>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18">
+        <f t="shared" ref="F26" si="11">RANK(F25,$C$25:$AF$25,1)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20">
-        <f t="shared" ref="I26" si="12">RANK(I25,$C$25:$AF$25,0)</f>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18">
+        <f t="shared" ref="I26" si="12">RANK(I25,$C$25:$AF$25,1)</f>
         <v>8</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21">
-        <f t="shared" ref="L26" si="13">RANK(L25,$C$25:$AF$25,0)</f>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18">
+        <f t="shared" ref="L26" si="13">RANK(L25,$C$25:$AF$25,1)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="20">
-        <f t="shared" ref="O26" si="14">RANK(O25,$C$25:$AF$25,0)</f>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18">
+        <f t="shared" ref="O26" si="14">RANK(O25,$C$25:$AF$25,1)</f>
         <v>8</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20">
-        <f t="shared" ref="R26" si="15">RANK(R25,$C$25:$AF$25,0)</f>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18">
+        <f t="shared" ref="R26" si="15">RANK(R25,$C$25:$AF$25,1)</f>
         <v>7</v>
       </c>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20">
-        <f t="shared" ref="U26" si="16">RANK(U25,$C$25:$AF$25,0)</f>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18">
+        <f t="shared" ref="U26" si="16">RANK(U25,$C$25:$AF$25,1)</f>
         <v>4</v>
       </c>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20">
-        <f t="shared" ref="X26" si="17">RANK(X25,$C$25:$AF$25,0)</f>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18">
+        <f t="shared" ref="X26" si="17">RANK(X25,$C$25:$AF$25,1)</f>
         <v>5</v>
       </c>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="21">
-        <f t="shared" ref="AA26" si="18">RANK(AA25,$C$25:$AF$25,0)</f>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18">
+        <f t="shared" ref="AA26" si="18">RANK(AA25,$C$25:$AF$25,1)</f>
         <v>3</v>
       </c>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21">
-        <f t="shared" ref="AD26" si="19">RANK(AD25,$C$25:$AF$25,0)</f>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18">
+        <f t="shared" ref="AD26" si="19">RANK(AD25,$C$25:$AF$25,1)</f>
         <v>1</v>
       </c>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <f>AVERAGE(C23:E23)</f>
         <v>0.29882629574276504</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18">
         <f t="shared" ref="F27" si="20">AVERAGE(F23:H23)</f>
         <v>0.35064716890143854</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20">
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18">
         <f t="shared" ref="I27" si="21">AVERAGE(I23:K23)</f>
         <v>0.34255825931516787</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18">
         <f t="shared" ref="L27" si="22">AVERAGE(L23:N23)</f>
         <v>0.38738405664140979</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20">
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18">
         <f t="shared" ref="O27" si="23">AVERAGE(O23:Q23)</f>
         <v>0.3287168495201816</v>
       </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18">
         <f t="shared" ref="R27" si="24">AVERAGE(R23:T23)</f>
         <v>0.34774345471523699</v>
       </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20">
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18">
         <f t="shared" ref="U27" si="25">AVERAGE(U23:W23)</f>
         <v>0.37275244255239764</v>
       </c>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20">
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18">
         <f t="shared" ref="X27" si="26">AVERAGE(X23:Z23)</f>
         <v>0.37173787763652699</v>
       </c>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20">
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18">
         <f t="shared" ref="AA27" si="27">AVERAGE(AA23:AC23)</f>
         <v>0.3711258987430483</v>
       </c>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20">
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18">
         <f t="shared" ref="AD27" si="28">AVERAGE(AD23:AF23)</f>
         <v>0.39889460070990029</v>
       </c>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19">
+      <c r="B28" s="22"/>
+      <c r="C28" s="21">
         <f>C25/MAX($C$25:$AF$25)</f>
-        <v>0.62903225806451613</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21">
         <f t="shared" ref="F28" si="29">F25/MAX($C$25:$AF$25)</f>
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19">
+        <v>0.87037037037037035</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21">
         <f t="shared" ref="I28" si="30">I25/MAX($C$25:$AF$25)</f>
-        <v>0.62903225806451613</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19">
+        <v>1</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21">
         <f t="shared" ref="L28" si="31">L25/MAX($C$25:$AF$25)</f>
-        <v>0.87096774193548387</v>
-      </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21">
         <f t="shared" ref="O28" si="32">O25/MAX($C$25:$AF$25)</f>
-        <v>0.62903225806451613</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19">
+        <v>1</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21">
         <f t="shared" ref="R28" si="33">R25/MAX($C$25:$AF$25)</f>
-        <v>0.67741935483870963</v>
-      </c>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21">
         <f t="shared" ref="U28" si="34">U25/MAX($C$25:$AF$25)</f>
-        <v>0.77419354838709675</v>
-      </c>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21">
         <f t="shared" ref="X28" si="35">X25/MAX($C$25:$AF$25)</f>
-        <v>0.75806451612903225</v>
-      </c>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21">
         <f t="shared" ref="AA28" si="36">AA25/MAX($C$25:$AF$25)</f>
-        <v>0.79032258064516125</v>
-      </c>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21">
         <f t="shared" ref="AD28" si="37">AD25/MAX($C$25:$AF$25)</f>
-        <v>1</v>
-      </c>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C30">
@@ -5973,6 +5930,53 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
@@ -5981,53 +5985,6 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AC28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results/Num_Evaluation.xlsx
+++ b/Results/Num_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster\TFM\Methodology\Num\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B8575-F59E-4ADD-80A4-248BCF213C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E70AC-D8DD-408E-ADB7-09D3755F5F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -211,19 +211,7 @@
     <t>science crypt</t>
   </si>
   <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
-    <t>SCORES BY RANKING</t>
-  </si>
-  <si>
-    <t>RANKING BY QUESTION SCORE</t>
-  </si>
-  <si>
     <t>WORDS</t>
-  </si>
-  <si>
-    <t>NUM. OF WORDS SCORE</t>
   </si>
   <si>
     <t>Blenderbot</t>
@@ -238,16 +226,28 @@
     <t>ChatGPT</t>
   </si>
   <si>
-    <t>SUM AVERAGE</t>
-  </si>
-  <si>
     <t>Total Average</t>
   </si>
   <si>
     <t>Total Ranking</t>
   </si>
   <si>
-    <t>NORMALIZED NUM OF WORDS SCORE</t>
+    <t>AVERAGE SIMILARITY</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>AGGREGATED SCORE</t>
+  </si>
+  <si>
+    <t>RANKING BY AGGREGATED SCORE</t>
+  </si>
+  <si>
+    <t>SUM AVERAGE SIMILARITY</t>
+  </si>
+  <si>
+    <t>NORMALIZED AGGREGATED SCORE</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -446,18 +446,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3250,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D64" sqref="B35:D64"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3262,9 +3257,9 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="19">
+        <v>51</v>
+      </c>
+      <c r="C1" s="20">
         <v>1</v>
       </c>
       <c r="D1" s="18"/>
@@ -5373,10 +5368,10 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="4">
+      <c r="C23" s="21">
         <f t="shared" ref="C23:AF23" si="0">AVERAGE(C3:C22)</f>
         <v>0.20269037871621548</v>
       </c>
@@ -5499,10 +5494,10 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="4">
+      <c r="C24" s="21">
         <f>RANK(C23,$C$23:$AF$23,0)</f>
         <v>27</v>
       </c>
@@ -5625,10 +5620,10 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="18">
+      <c r="C25" s="20">
         <f>SUM(C24:E24)</f>
         <v>54</v>
       </c>
@@ -5690,11 +5685,11 @@
       <c r="AF25" s="18"/>
     </row>
     <row r="26" spans="1:32" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="18">
+      <c r="A26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20">
         <f>RANK(C25,$C$25:$AF$25,1)</f>
         <v>8</v>
       </c>
@@ -5756,9 +5751,10 @@
       <c r="AF26" s="18"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
+      <c r="A27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="18"/>
       <c r="C27" s="18">
         <f>AVERAGE(C23:E23)</f>
         <v>0.29882629574276504</v>
@@ -5821,70 +5817,70 @@
       <c r="AF27" s="18"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="21">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18">
         <f>C25/MAX($C$25:$AF$25)</f>
         <v>1</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18">
         <f t="shared" ref="F28" si="29">F25/MAX($C$25:$AF$25)</f>
         <v>0.87037037037037035</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18">
         <f t="shared" ref="I28" si="30">I25/MAX($C$25:$AF$25)</f>
         <v>1</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21">
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18">
         <f t="shared" ref="L28" si="31">L25/MAX($C$25:$AF$25)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21">
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18">
         <f t="shared" ref="O28" si="32">O25/MAX($C$25:$AF$25)</f>
         <v>1</v>
       </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18">
         <f t="shared" ref="R28" si="33">R25/MAX($C$25:$AF$25)</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21">
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18">
         <f t="shared" ref="U28" si="34">U25/MAX($C$25:$AF$25)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21">
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18">
         <f t="shared" ref="X28" si="35">X25/MAX($C$25:$AF$25)</f>
         <v>0.85185185185185186</v>
       </c>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21">
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18">
         <f t="shared" ref="AA28" si="36">AA25/MAX($C$25:$AF$25)</f>
         <v>0.81481481481481477</v>
       </c>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21">
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18">
         <f t="shared" ref="AD28" si="37">AD25/MAX($C$25:$AF$25)</f>
         <v>0.57407407407407407</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C30">
@@ -5929,54 +5925,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
+  <mergeCells count="56">
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
@@ -5985,9 +5935,57 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AC28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6003,22 +6001,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
